--- a/题目.xlsx
+++ b/题目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\资料\板子之类\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC32C2F5-6DBD-434A-AE64-2758F574DDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC47B07-2006-41E1-A187-92EDD6772AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1470" yWindow="3990" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,11 +115,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>优化连边+最大全闭合子图（网络流）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分析完是清楚的，实现很痛苦。树链剖分/LCA倍增也行，把倍增区间作为新的点。</t>
+    <t>分析完是清楚的，实现很痛苦。树链剖分/LCA倍增也行，把倍增区间作为新的点。重链前缀优化建边，感觉单log和双log差别不大啊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化连边+最大权闭合子图（网络流）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,7 +516,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -605,7 +605,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
@@ -613,10 +613,10 @@
         <v>20</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/题目.xlsx
+++ b/题目.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\资料\板子之类\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC47B07-2006-41E1-A187-92EDD6772AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01456BCD-D91D-4B7D-8A8B-7B9256695B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1470" yWindow="3990" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>OJ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>牛客多校2B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>牛客</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,6 +116,58 @@
   </si>
   <si>
     <t>优化连边+最大权闭合子图（网络流）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023牛客多校G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023牛客多校2B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博弈论+线性基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容易发现两次就可以判断结局，用线性基判断能否产生新的数来代表是否先手能走安全步，能即平局。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1858E1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离线：DFS+倍增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对数组的操作可以看作在树上跳来跳去的行为，额外用一个栈记录有效操作来解决撤回操作，即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1858E2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线：树状数组log或前缀和线性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懒惰修改，到有影响再删；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛谷 P2057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络流：集合划分模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把同意与不同意划分为两个集合，发现流网络里的割就是题中的冲突数，题中所求等价为最小割。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,33 +248,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -513,110 +564,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="34.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="46.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="41.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="46.75" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" style="7" customWidth="1"/>
     <col min="6" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="10" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="B7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>22</v>
+      <c r="C7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -626,8 +733,12 @@
     <hyperlink ref="B4" r:id="rId2" display="https://codeforces.com/contest/1855/problem/D" xr:uid="{88A03600-9647-40DF-810B-1D62D7065B7D}"/>
     <hyperlink ref="B5" r:id="rId3" display="https://vjudge.net/problem/%E6%B4%9B%E8%B0%B7-P2805" xr:uid="{16BACA2B-12EF-4241-AD2D-B89E4CAB6A24}"/>
     <hyperlink ref="B6" r:id="rId4" display="https://ac.nowcoder.com/acm/contest/57356/B" xr:uid="{1BA13001-0146-4F4F-81AD-754856B77C4A}"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://ac.nowcoder.com/acm/contest/57363/G" xr:uid="{66B51598-2C72-47A0-995B-C1A57E5910CA}"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://codeforces.com/contest/1858/problem/E1" xr:uid="{C0695FB3-51C3-44AC-ACC3-0C1060B84871}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{5BE0289D-4C06-4B69-B52E-3C37BF463452}"/>
+    <hyperlink ref="B10" r:id="rId8" display="https://www.luogu.com.cn/problem/P2057" xr:uid="{B130345D-6D3A-476E-BED3-41DE9F3FA00B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/题目.xlsx
+++ b/题目.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\资料\板子之类\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01456BCD-D91D-4B7D-8A8B-7B9256695B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACBFF70-836E-4740-9328-2DBA8ADFE436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="3990" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41655" yWindow="2310" windowWidth="19200" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>OJ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +168,127 @@
   </si>
   <si>
     <t>把同意与不同意划分为两个集合，发现流网络里的割就是题中的冲突数，题中所求等价为最小割。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基环树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基环树森林</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有被圈的环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>环。（由于环上被圈的，必定和前驱匹配）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atcoder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc217_d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离线，DSU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做法还是很神奇的，把切开变为合并， 就好用dsu做了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc217_f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区间DP，方案数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视为不同方案的方式，导致转移时牵涉组合数。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,7 +296,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +325,26 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -271,9 +412,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -281,6 +419,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -564,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -618,7 +759,7 @@
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -632,7 +773,7 @@
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -646,7 +787,7 @@
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -660,7 +801,7 @@
       <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -674,7 +815,7 @@
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -716,7 +857,7 @@
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -724,6 +865,48 @@
       </c>
       <c r="D10" s="6" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -737,8 +920,11 @@
     <hyperlink ref="B8" r:id="rId6" display="https://codeforces.com/contest/1858/problem/E1" xr:uid="{C0695FB3-51C3-44AC-ACC3-0C1060B84871}"/>
     <hyperlink ref="B9" r:id="rId7" xr:uid="{5BE0289D-4C06-4B69-B52E-3C37BF463452}"/>
     <hyperlink ref="B10" r:id="rId8" display="https://www.luogu.com.cn/problem/P2057" xr:uid="{B130345D-6D3A-476E-BED3-41DE9F3FA00B}"/>
+    <hyperlink ref="B11" r:id="rId9" display="https://codeforces.com/contest/1877/problem/E" xr:uid="{F577CEAE-F616-419E-AE32-8CB3E4CD26E4}"/>
+    <hyperlink ref="B12" r:id="rId10" display="https://atcoder.jp/contests/abc217/tasks/abc217_d" xr:uid="{4AB95E82-FC83-40E1-9DB7-2DC5FCDB9F33}"/>
+    <hyperlink ref="B13" r:id="rId11" display="https://atcoder.jp/contests/abc217/tasks/abc217_f" xr:uid="{07A8A510-451B-4570-B3DC-0972A9903E9C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/题目.xlsx
+++ b/题目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\资料\板子之类\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACBFF70-836E-4740-9328-2DBA8ADFE436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4B4BF5-5635-46B5-834B-CE13DEB49094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41655" yWindow="2310" windowWidth="19200" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>OJ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,6 +289,30 @@
   </si>
   <si>
     <t>视为不同方案的方式，导致转移时牵涉组合数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栗酱的数列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差分，KMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个序列对应的和满足一定性质，移项后，把关系变为两个序列长段之间的关系。再转化为字符串匹配问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数一数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目性质，有意义的答案只是少数。乘积遇到 0 就为 0 。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,7 +413,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -424,6 +448,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -705,9 +730,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -716,7 +741,7 @@
     <col min="1" max="1" width="8.83203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="13.25" style="6" customWidth="1"/>
     <col min="3" max="3" width="34.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="46.75" style="6" customWidth="1"/>
+    <col min="4" max="4" width="48" style="6" customWidth="1"/>
     <col min="5" max="5" width="41.6640625" style="7" customWidth="1"/>
     <col min="6" max="16384" width="8.6640625" style="1"/>
   </cols>
@@ -907,6 +932,34 @@
       </c>
       <c r="D13" s="6" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -923,8 +976,10 @@
     <hyperlink ref="B11" r:id="rId9" display="https://codeforces.com/contest/1877/problem/E" xr:uid="{F577CEAE-F616-419E-AE32-8CB3E4CD26E4}"/>
     <hyperlink ref="B12" r:id="rId10" display="https://atcoder.jp/contests/abc217/tasks/abc217_d" xr:uid="{4AB95E82-FC83-40E1-9DB7-2DC5FCDB9F33}"/>
     <hyperlink ref="B13" r:id="rId11" display="https://atcoder.jp/contests/abc217/tasks/abc217_f" xr:uid="{07A8A510-451B-4570-B3DC-0972A9903E9C}"/>
+    <hyperlink ref="B14" r:id="rId12" display="https://ac.nowcoder.com/acm/contest/27589/C" xr:uid="{1C55819F-43CB-405F-B132-5777E223AF76}"/>
+    <hyperlink ref="B15" r:id="rId13" display="https://ac.nowcoder.com/acm/contest/27589/B?&amp;headNav=acm" xr:uid="{6AFF5F15-23F6-4BB5-98AF-89F37FD41CFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>